--- a/data/regression_data.xlsx
+++ b/data/regression_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C82FD2-7875-DD43-8882-01B3E1C2DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DA913-AC59-BD4A-8E4F-36C2103B6238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="2220" windowWidth="22480" windowHeight="17240" activeTab="2" xr2:uid="{4B859719-7C0B-1B4F-925C-DB13115EF66C}"/>
+    <workbookView xWindow="2680" yWindow="2220" windowWidth="22480" windowHeight="17240" activeTab="1" xr2:uid="{4B859719-7C0B-1B4F-925C-DB13115EF66C}"/>
   </bookViews>
   <sheets>
     <sheet name="theory" sheetId="1" r:id="rId1"/>
-    <sheet name="covariate" sheetId="2" r:id="rId2"/>
-    <sheet name="factorial" sheetId="3" r:id="rId3"/>
+    <sheet name="theory_mult" sheetId="4" r:id="rId2"/>
+    <sheet name="covariate" sheetId="2" r:id="rId3"/>
+    <sheet name="factorial" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
   <si>
     <t>svl</t>
   </si>
@@ -83,6 +84,9 @@
   </si>
   <si>
     <t>fox</t>
+  </si>
+  <si>
+    <t>diameter</t>
   </si>
 </sst>
 </file>
@@ -472,7 +476,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +613,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D778738A-0CB2-0D40-AB7D-BC3C58459ED8}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF9C4D1-D148-2443-89C2-2662A89F4773}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -687,11 +859,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956214F7-ED4D-D545-AD09-E1A2529DE948}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
